--- a/src/test/java/com/ecommerce/TestData/TC01.xlsx
+++ b/src/test/java/com/ecommerce/TestData/TC01.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="searchbox" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="addtocart" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,19 +16,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>SEARCHBOX</t>
   </si>
   <si>
     <t>mobile</t>
   </si>
+  <si>
+    <t>MAILID</t>
+  </si>
+  <si>
+    <t>MOBILE NO</t>
+  </si>
+  <si>
+    <t>emailgmail@gmail.com</t>
+  </si>
+  <si>
+    <t>gmailemail@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,6 +55,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -89,15 +108,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,10 +415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,24 +447,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9841457845</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8111942532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9108165831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9337641671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="2">
+        <v>9962851701</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/com/ecommerce/TestData/TC01.xlsx
+++ b/src/test/java/com/ecommerce/TestData/TC01.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
